--- a/biology/Histoire de la zoologie et de la botanique/Andreas_Voss/Andreas_Voss.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Andreas_Voss/Andreas_Voss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andreas Voss est un botaniste allemand né à Syke (à côté de Brême) le 12 mars 1857 et décédé le 9 avril 1924 à Heiligendamm (Bad Doberan).
 Ce spécialiste de l'horticulture est l'éditeur en allemand, avec August Siebert (de) (1854-1923), de la troisième édition du guide Vilmorin sur la floriculture, Vilmorin's Blumengärtnerei. Il est aussi l'auteur d'un dictionnaire de botanique, Botanisches Hilfs- und Wörterbuch, la sixième édition date de 1922.
